--- a/static/leave_application_template.xlsx
+++ b/static/leave_application_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\warm-hollows-62602\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\DASH v3\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3797E1BB-ABDC-4AB6-A986-8764BF2B697E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FA53B3-10E1-4B9D-9ACE-11A42969233F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1575" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1244,15 +1244,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1268,6 +1264,89 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1278,91 +1357,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3093,8 +3095,8 @@
   </sheetPr>
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3110,32 +3112,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -3155,17 +3157,17 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
     </row>
     <row r="4" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -3187,21 +3189,21 @@
         <v>6</v>
       </c>
       <c r="B5" s="26"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="70"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="68"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="65"/>
       <c r="E6" s="61" t="s">
         <v>75</v>
       </c>
@@ -3217,7 +3219,7 @@
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="72"/>
+      <c r="E7" s="70"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -3225,16 +3227,16 @@
     </row>
     <row r="8" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="83"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="85"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
@@ -3538,12 +3540,12 @@
     <row r="31" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="84" t="s">
+      <c r="C31" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="85"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="111"/>
       <c r="G31" s="2"/>
       <c r="H31" s="22" t="s">
         <v>30</v>
@@ -3717,9 +3719,9 @@
     </row>
     <row r="45" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
-      <c r="B45" s="73"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="74"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
       <c r="E45" s="2"/>
       <c r="F45" s="20"/>
       <c r="G45" s="2"/>
@@ -3757,14 +3759,17 @@
     </row>
     <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
-      <c r="B48" s="75"/>
-      <c r="C48" s="76"/>
-      <c r="D48" s="76"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="74"/>
       <c r="E48" s="33"/>
       <c r="F48" s="20"/>
       <c r="G48" s="34"/>
       <c r="H48" s="34"/>
-      <c r="I48" s="63"/>
+      <c r="I48" s="113">
+        <f>E5</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:26" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
@@ -3773,24 +3778,24 @@
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="98" t="s">
+      <c r="G49" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="H49" s="99"/>
-      <c r="I49" s="100"/>
+      <c r="H49" s="81"/>
+      <c r="I49" s="82"/>
     </row>
     <row r="50" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13"/>
-      <c r="B50" s="81" t="s">
+      <c r="B50" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="82"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="82"/>
-      <c r="I50" s="83"/>
+      <c r="C50" s="84"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="84"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="85"/>
       <c r="J50" s="14"/>
       <c r="K50" s="14"/>
       <c r="L50" s="14"/>
@@ -3932,24 +3937,24 @@
       <c r="F59" s="2"/>
       <c r="G59" s="40"/>
       <c r="H59" s="2"/>
-      <c r="I59" s="67" t="s">
+      <c r="I59" s="112" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
       <c r="B60" s="42"/>
-      <c r="C60" s="101" t="s">
+      <c r="C60" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="D60" s="102"/>
-      <c r="E60" s="102"/>
+      <c r="D60" s="87"/>
+      <c r="E60" s="87"/>
       <c r="F60" s="43"/>
-      <c r="G60" s="98" t="s">
+      <c r="G60" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="H60" s="99"/>
-      <c r="I60" s="100"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="82"/>
       <c r="J60" s="44"/>
       <c r="K60" s="44"/>
       <c r="L60" s="44"/>
@@ -4029,43 +4034,43 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="106" t="s">
+      <c r="A65" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="107"/>
-      <c r="C65" s="107"/>
-      <c r="D65" s="107"/>
-      <c r="E65" s="107"/>
-      <c r="F65" s="107"/>
-      <c r="G65" s="107"/>
-      <c r="H65" s="107"/>
-      <c r="I65" s="108"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="92"/>
+      <c r="F65" s="92"/>
+      <c r="G65" s="92"/>
+      <c r="H65" s="92"/>
+      <c r="I65" s="93"/>
     </row>
     <row r="66" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="103" t="s">
+      <c r="A66" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="B66" s="104"/>
-      <c r="C66" s="104"/>
-      <c r="D66" s="104"/>
-      <c r="E66" s="104"/>
-      <c r="F66" s="104"/>
-      <c r="G66" s="104"/>
-      <c r="H66" s="104"/>
-      <c r="I66" s="105"/>
+      <c r="B66" s="95"/>
+      <c r="C66" s="95"/>
+      <c r="D66" s="95"/>
+      <c r="E66" s="95"/>
+      <c r="F66" s="95"/>
+      <c r="G66" s="95"/>
+      <c r="H66" s="95"/>
+      <c r="I66" s="96"/>
     </row>
     <row r="67" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="109" t="s">
+      <c r="A67" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="110"/>
-      <c r="C67" s="110"/>
-      <c r="D67" s="110"/>
-      <c r="E67" s="110"/>
-      <c r="F67" s="110"/>
-      <c r="G67" s="110"/>
-      <c r="H67" s="110"/>
-      <c r="I67" s="111"/>
+      <c r="B67" s="89"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="89"/>
+      <c r="F67" s="89"/>
+      <c r="G67" s="89"/>
+      <c r="H67" s="89"/>
+      <c r="I67" s="90"/>
     </row>
     <row r="68" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="47"/>
@@ -4079,15 +4084,15 @@
       <c r="I68" s="47"/>
     </row>
     <row r="69" spans="1:26" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="95"/>
-      <c r="B69" s="95"/>
-      <c r="C69" s="95"/>
-      <c r="D69" s="95"/>
-      <c r="E69" s="95"/>
-      <c r="F69" s="95"/>
-      <c r="G69" s="95"/>
-      <c r="H69" s="95"/>
-      <c r="I69" s="95"/>
+      <c r="A69" s="77"/>
+      <c r="B69" s="77"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="77"/>
+      <c r="H69" s="77"/>
+      <c r="I69" s="77"/>
     </row>
     <row r="70" spans="1:26" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="48"/>
@@ -4101,13 +4106,13 @@
       <c r="I70" s="50"/>
     </row>
     <row r="71" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="96" t="s">
+      <c r="A71" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="B71" s="97"/>
-      <c r="C71" s="97"/>
-      <c r="D71" s="97"/>
-      <c r="E71" s="97"/>
+      <c r="B71" s="79"/>
+      <c r="C71" s="79"/>
+      <c r="D71" s="79"/>
+      <c r="E71" s="79"/>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
       <c r="H71" s="51"/>
@@ -4116,28 +4121,28 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="86"/>
-      <c r="B72" s="87"/>
-      <c r="C72" s="87"/>
-      <c r="D72" s="87"/>
-      <c r="E72" s="87"/>
+      <c r="A72" s="97"/>
+      <c r="B72" s="98"/>
+      <c r="C72" s="98"/>
+      <c r="D72" s="98"/>
+      <c r="E72" s="98"/>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
       <c r="H72" s="51"/>
       <c r="I72" s="52"/>
     </row>
     <row r="73" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="88" t="s">
+      <c r="A73" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="B73" s="89"/>
-      <c r="C73" s="89"/>
-      <c r="D73" s="89"/>
-      <c r="E73" s="89"/>
-      <c r="F73" s="89"/>
-      <c r="G73" s="89"/>
-      <c r="H73" s="89"/>
-      <c r="I73" s="90"/>
+      <c r="B73" s="100"/>
+      <c r="C73" s="100"/>
+      <c r="D73" s="100"/>
+      <c r="E73" s="100"/>
+      <c r="F73" s="100"/>
+      <c r="G73" s="100"/>
+      <c r="H73" s="100"/>
+      <c r="I73" s="101"/>
       <c r="J73" s="53"/>
       <c r="K73" s="53"/>
       <c r="L73" s="53"/>
@@ -4157,43 +4162,43 @@
       <c r="Z73" s="53"/>
     </row>
     <row r="74" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="88" t="s">
+      <c r="A74" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="B74" s="89"/>
-      <c r="C74" s="89"/>
-      <c r="D74" s="89"/>
-      <c r="E74" s="89"/>
-      <c r="F74" s="89"/>
-      <c r="G74" s="89"/>
-      <c r="H74" s="89"/>
-      <c r="I74" s="90"/>
+      <c r="B74" s="100"/>
+      <c r="C74" s="100"/>
+      <c r="D74" s="100"/>
+      <c r="E74" s="100"/>
+      <c r="F74" s="100"/>
+      <c r="G74" s="100"/>
+      <c r="H74" s="100"/>
+      <c r="I74" s="101"/>
     </row>
     <row r="75" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="86" t="s">
+      <c r="A75" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="B75" s="87"/>
-      <c r="C75" s="87"/>
-      <c r="D75" s="87"/>
-      <c r="E75" s="87"/>
-      <c r="F75" s="87"/>
-      <c r="G75" s="87"/>
-      <c r="H75" s="87"/>
-      <c r="I75" s="91"/>
+      <c r="B75" s="98"/>
+      <c r="C75" s="98"/>
+      <c r="D75" s="98"/>
+      <c r="E75" s="98"/>
+      <c r="F75" s="98"/>
+      <c r="G75" s="98"/>
+      <c r="H75" s="98"/>
+      <c r="I75" s="102"/>
     </row>
     <row r="76" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="92" t="s">
+      <c r="A76" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="B76" s="93"/>
-      <c r="C76" s="93"/>
-      <c r="D76" s="93"/>
-      <c r="E76" s="93"/>
-      <c r="F76" s="93"/>
-      <c r="G76" s="93"/>
-      <c r="H76" s="93"/>
-      <c r="I76" s="94"/>
+      <c r="B76" s="104"/>
+      <c r="C76" s="104"/>
+      <c r="D76" s="104"/>
+      <c r="E76" s="104"/>
+      <c r="F76" s="104"/>
+      <c r="G76" s="104"/>
+      <c r="H76" s="104"/>
+      <c r="I76" s="105"/>
     </row>
     <row r="77" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="54"/>
@@ -4239,7 +4244,7 @@
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
       <c r="H80" s="51"/>
-      <c r="I80" s="113" t="s">
+      <c r="I80" s="76" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4252,7 +4257,7 @@
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
       <c r="H81" s="51"/>
-      <c r="I81" s="112" t="s">
+      <c r="I81" s="75" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5221,6 +5226,16 @@
     <row r="1002" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A73:I73"/>
+    <mergeCell ref="A74:I74"/>
+    <mergeCell ref="A75:I75"/>
+    <mergeCell ref="A76:I76"/>
     <mergeCell ref="A69:I69"/>
     <mergeCell ref="A71:E71"/>
     <mergeCell ref="G49:I49"/>
@@ -5230,16 +5245,6 @@
     <mergeCell ref="A67:I67"/>
     <mergeCell ref="A65:I65"/>
     <mergeCell ref="A66:I66"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A73:I73"/>
-    <mergeCell ref="A74:I74"/>
-    <mergeCell ref="A75:I75"/>
-    <mergeCell ref="A76:I76"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="C31:F31"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.25" bottom="0" header="0" footer="0"/>
